--- a/tests/resources/cut_down_master_4_2017_incorrect_baselines.xlsx
+++ b/tests/resources/cut_down_master_4_2017_incorrect_baselines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
   </si>
 </sst>
 </file>
@@ -459,11 +462,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B15" activeCellId="0" sqref="B15:F15"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -853,6 +856,16 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2017_incorrect_baselines.xlsx
+++ b/tests/resources/cut_down_master_4_2017_incorrect_baselines.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -865,6 +868,11 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
